--- a/L2_arb_ipa_S2K22.xlsx
+++ b/L2_arb_ipa_S2K22.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewdavis/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewdavis/Documents/IU Grad School/S2K22/L700_S2K22/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7288443C-B2A2-B945-ACEA-320730A0D5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBF6F7F-EB76-D34E-969D-EABA496327C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28860" yWindow="500" windowWidth="38340" windowHeight="19640" xr2:uid="{F835DBB9-38C5-7F4E-810B-B19652674900}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{F835DBB9-38C5-7F4E-810B-B19652674900}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,6 +28,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="74">
   <si>
     <t>L2_arb_ipa</t>
   </si>
@@ -229,9 +230,6 @@
     <t>u</t>
   </si>
   <si>
-    <t>ɑː</t>
-  </si>
-  <si>
     <t>a</t>
   </si>
   <si>
@@ -244,9 +242,6 @@
     <t>rtr</t>
   </si>
   <si>
-    <t>GUT</t>
-  </si>
-  <si>
     <t>rˤ</t>
   </si>
   <si>
@@ -259,7 +254,10 @@
     <t>iʶ</t>
   </si>
   <si>
-    <t xml:space="preserve">Delete-  </t>
+    <t>radical</t>
+  </si>
+  <si>
+    <t>aː</t>
   </si>
 </sst>
 </file>
@@ -275,8 +273,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -302,9 +301,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -620,118 +618,117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B5ED3A9-2D9C-2346-9BB3-A42B7AFFEF2C}">
-  <dimension ref="A1:AG43"/>
+  <dimension ref="A1:AD43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R22" sqref="R22"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" t="s">
-        <v>74</v>
+    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="J2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L2" t="s">
+      <c r="K2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M2" t="s">
+      <c r="L2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N2" t="s">
+      <c r="M2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O2" t="s">
+      <c r="N2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P2" t="s">
+      <c r="O2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="T2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R2" t="s">
+      <c r="U2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S2" t="s">
+      <c r="V2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T2" t="s">
-        <v>18</v>
-      </c>
-      <c r="U2" t="s">
-        <v>19</v>
-      </c>
-      <c r="V2" t="s">
-        <v>20</v>
-      </c>
-      <c r="W2" t="s">
+      <c r="W2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X2" t="s">
+      <c r="X2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Y2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="Z2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AA2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AB2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AD2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG2" s="1"/>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B3" t="s">
@@ -761,23 +758,23 @@
       <c r="J3">
         <v>0</v>
       </c>
-      <c r="K3">
-        <v>0</v>
+      <c r="K3" t="s">
+        <v>28</v>
       </c>
       <c r="L3" t="s">
         <v>28</v>
       </c>
       <c r="M3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" t="s">
+        <v>29</v>
       </c>
       <c r="Q3" t="s">
         <v>28</v>
@@ -785,11 +782,11 @@
       <c r="R3" t="s">
         <v>28</v>
       </c>
-      <c r="S3" t="s">
-        <v>28</v>
+      <c r="S3">
+        <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U3" t="s">
         <v>28</v>
@@ -822,8 +819,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B4" t="s">
@@ -853,8 +850,8 @@
       <c r="J4">
         <v>0</v>
       </c>
-      <c r="K4">
-        <v>0</v>
+      <c r="K4" t="s">
+        <v>28</v>
       </c>
       <c r="L4" t="s">
         <v>28</v>
@@ -862,32 +859,32 @@
       <c r="M4" t="s">
         <v>28</v>
       </c>
-      <c r="N4" t="s">
-        <v>28</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" t="s">
+        <v>29</v>
       </c>
       <c r="Q4" t="s">
         <v>28</v>
       </c>
       <c r="R4" t="s">
-        <v>28</v>
-      </c>
-      <c r="S4" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U4" t="s">
         <v>28</v>
       </c>
       <c r="V4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -914,8 +911,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B5" t="s">
@@ -945,23 +942,23 @@
       <c r="J5">
         <v>0</v>
       </c>
-      <c r="K5">
-        <v>0</v>
+      <c r="K5" t="s">
+        <v>28</v>
       </c>
       <c r="L5" t="s">
         <v>28</v>
       </c>
       <c r="M5" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" t="s">
+        <v>29</v>
       </c>
       <c r="Q5" t="s">
         <v>28</v>
@@ -969,11 +966,11 @@
       <c r="R5" t="s">
         <v>28</v>
       </c>
-      <c r="S5" t="s">
-        <v>28</v>
+      <c r="S5">
+        <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U5" t="s">
         <v>28</v>
@@ -1006,8 +1003,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B6" t="s">
@@ -1037,38 +1034,38 @@
       <c r="J6">
         <v>0</v>
       </c>
-      <c r="K6">
-        <v>0</v>
+      <c r="K6" t="s">
+        <v>28</v>
       </c>
       <c r="L6" t="s">
         <v>28</v>
       </c>
       <c r="M6" t="s">
-        <v>28</v>
-      </c>
-      <c r="N6" t="s">
-        <v>29</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" t="s">
+        <v>29</v>
       </c>
       <c r="Q6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R6" t="s">
         <v>28</v>
       </c>
-      <c r="S6" t="s">
-        <v>28</v>
+      <c r="S6">
+        <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V6" t="s">
         <v>28</v>
@@ -1098,8 +1095,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B7" t="s">
@@ -1129,8 +1126,8 @@
       <c r="J7">
         <v>0</v>
       </c>
-      <c r="K7">
-        <v>0</v>
+      <c r="K7" t="s">
+        <v>28</v>
       </c>
       <c r="L7" t="s">
         <v>28</v>
@@ -1138,32 +1135,32 @@
       <c r="M7" t="s">
         <v>28</v>
       </c>
-      <c r="N7" t="s">
-        <v>28</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="s">
-        <v>29</v>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
       </c>
       <c r="Q7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S7" t="s">
         <v>29</v>
       </c>
-      <c r="T7">
-        <v>0</v>
+      <c r="T7" t="s">
+        <v>29</v>
       </c>
       <c r="U7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="V7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="W7">
         <v>0</v>
@@ -1190,8 +1187,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B8" t="s">
@@ -1221,41 +1218,41 @@
       <c r="J8">
         <v>0</v>
       </c>
-      <c r="K8">
-        <v>0</v>
+      <c r="K8" t="s">
+        <v>28</v>
       </c>
       <c r="L8" t="s">
         <v>28</v>
       </c>
       <c r="M8" t="s">
-        <v>28</v>
-      </c>
-      <c r="N8" t="s">
-        <v>29</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="s">
-        <v>29</v>
+        <v>29</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
       </c>
       <c r="Q8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S8" t="s">
         <v>29</v>
       </c>
-      <c r="T8">
-        <v>0</v>
+      <c r="T8" t="s">
+        <v>29</v>
       </c>
       <c r="U8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="V8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="W8">
         <v>0</v>
@@ -1282,8 +1279,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B9" t="s">
@@ -1313,14 +1310,14 @@
       <c r="J9">
         <v>0</v>
       </c>
-      <c r="K9">
-        <v>0</v>
+      <c r="K9" t="s">
+        <v>28</v>
       </c>
       <c r="L9" t="s">
         <v>28</v>
       </c>
       <c r="M9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N9" t="s">
         <v>29</v>
@@ -1335,19 +1332,19 @@
         <v>29</v>
       </c>
       <c r="R9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S9" t="s">
         <v>29</v>
       </c>
-      <c r="T9">
-        <v>1</v>
+      <c r="T9" t="s">
+        <v>29</v>
       </c>
       <c r="U9" t="s">
         <v>29</v>
       </c>
       <c r="V9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="W9">
         <v>0</v>
@@ -1374,8 +1371,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B10" t="s">
@@ -1405,8 +1402,8 @@
       <c r="J10">
         <v>0</v>
       </c>
-      <c r="K10">
-        <v>0</v>
+      <c r="K10" t="s">
+        <v>28</v>
       </c>
       <c r="L10" t="s">
         <v>28</v>
@@ -1414,26 +1411,26 @@
       <c r="M10" t="s">
         <v>28</v>
       </c>
-      <c r="N10" t="s">
-        <v>28</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="s">
-        <v>29</v>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
       </c>
       <c r="Q10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R10" t="s">
         <v>28</v>
       </c>
       <c r="S10" t="s">
-        <v>28</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="T10" t="s">
+        <v>29</v>
       </c>
       <c r="U10" t="s">
         <v>28</v>
@@ -1466,8 +1463,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B11" t="s">
@@ -1497,8 +1494,8 @@
       <c r="J11">
         <v>0</v>
       </c>
-      <c r="K11">
-        <v>0</v>
+      <c r="K11" t="s">
+        <v>28</v>
       </c>
       <c r="L11" t="s">
         <v>28</v>
@@ -1506,17 +1503,17 @@
       <c r="M11" t="s">
         <v>28</v>
       </c>
-      <c r="N11" t="s">
-        <v>28</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="s">
-        <v>29</v>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11" t="s">
+        <v>28</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
       </c>
       <c r="Q11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R11" t="s">
         <v>28</v>
@@ -1524,14 +1521,14 @@
       <c r="S11" t="s">
         <v>29</v>
       </c>
-      <c r="T11">
-        <v>0</v>
+      <c r="T11" t="s">
+        <v>29</v>
       </c>
       <c r="U11" t="s">
         <v>28</v>
       </c>
       <c r="V11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="W11">
         <v>0</v>
@@ -1558,8 +1555,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B12" t="s">
@@ -1589,8 +1586,8 @@
       <c r="J12">
         <v>0</v>
       </c>
-      <c r="K12">
-        <v>0</v>
+      <c r="K12" t="s">
+        <v>28</v>
       </c>
       <c r="L12" t="s">
         <v>28</v>
@@ -1599,7 +1596,7 @@
         <v>28</v>
       </c>
       <c r="N12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O12" t="s">
         <v>29</v>
@@ -1614,13 +1611,13 @@
         <v>28</v>
       </c>
       <c r="S12" t="s">
-        <v>28</v>
-      </c>
-      <c r="T12">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="T12" t="s">
+        <v>29</v>
       </c>
       <c r="U12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V12" t="s">
         <v>28</v>
@@ -1650,8 +1647,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B13" t="s">
@@ -1681,35 +1678,35 @@
       <c r="J13">
         <v>0</v>
       </c>
-      <c r="K13">
-        <v>0</v>
+      <c r="K13" t="s">
+        <v>28</v>
       </c>
       <c r="L13" t="s">
         <v>28</v>
       </c>
       <c r="M13" t="s">
-        <v>28</v>
-      </c>
-      <c r="N13" t="s">
-        <v>29</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="s">
-        <v>29</v>
+        <v>29</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13" t="s">
+        <v>28</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
       </c>
       <c r="Q13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R13" t="s">
         <v>28</v>
       </c>
       <c r="S13" t="s">
-        <v>28</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="T13" t="s">
+        <v>29</v>
       </c>
       <c r="U13" t="s">
         <v>28</v>
@@ -1742,8 +1739,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B14" t="s">
@@ -1773,26 +1770,26 @@
       <c r="J14">
         <v>0</v>
       </c>
-      <c r="K14">
-        <v>0</v>
+      <c r="K14" t="s">
+        <v>28</v>
       </c>
       <c r="L14" t="s">
         <v>28</v>
       </c>
       <c r="M14" t="s">
-        <v>28</v>
-      </c>
-      <c r="N14" t="s">
-        <v>29</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="s">
-        <v>29</v>
+        <v>29</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14" t="s">
+        <v>28</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
       </c>
       <c r="Q14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R14" t="s">
         <v>28</v>
@@ -1800,14 +1797,14 @@
       <c r="S14" t="s">
         <v>29</v>
       </c>
-      <c r="T14">
-        <v>0</v>
+      <c r="T14" t="s">
+        <v>29</v>
       </c>
       <c r="U14" t="s">
         <v>28</v>
       </c>
       <c r="V14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -1834,8 +1831,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B15" t="s">
@@ -1865,14 +1862,14 @@
       <c r="J15">
         <v>0</v>
       </c>
-      <c r="K15">
-        <v>0</v>
+      <c r="K15" t="s">
+        <v>28</v>
       </c>
       <c r="L15" t="s">
         <v>28</v>
       </c>
       <c r="M15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N15" t="s">
         <v>29</v>
@@ -1890,13 +1887,13 @@
         <v>28</v>
       </c>
       <c r="S15" t="s">
-        <v>28</v>
-      </c>
-      <c r="T15">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="T15" t="s">
+        <v>29</v>
       </c>
       <c r="U15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V15" t="s">
         <v>28</v>
@@ -1926,8 +1923,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B16" t="s">
@@ -1957,8 +1954,8 @@
       <c r="J16">
         <v>0</v>
       </c>
-      <c r="K16">
-        <v>0</v>
+      <c r="K16" t="s">
+        <v>28</v>
       </c>
       <c r="L16" t="s">
         <v>28</v>
@@ -1966,26 +1963,26 @@
       <c r="M16" t="s">
         <v>28</v>
       </c>
-      <c r="N16" t="s">
-        <v>28</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="s">
-        <v>29</v>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16" t="s">
+        <v>28</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
       </c>
       <c r="Q16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R16" t="s">
         <v>28</v>
       </c>
       <c r="S16" t="s">
-        <v>28</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="T16" t="s">
+        <v>29</v>
       </c>
       <c r="U16" t="s">
         <v>28</v>
@@ -2019,7 +2016,7 @@
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B17" t="s">
@@ -2049,35 +2046,35 @@
       <c r="J17">
         <v>0</v>
       </c>
-      <c r="K17">
-        <v>0</v>
+      <c r="K17" t="s">
+        <v>28</v>
       </c>
       <c r="L17" t="s">
         <v>28</v>
       </c>
       <c r="M17" t="s">
-        <v>28</v>
-      </c>
-      <c r="N17" t="s">
-        <v>29</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="s">
-        <v>29</v>
+        <v>29</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17" t="s">
+        <v>28</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
       </c>
       <c r="Q17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R17" t="s">
         <v>28</v>
       </c>
       <c r="S17" t="s">
-        <v>28</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="T17" t="s">
+        <v>29</v>
       </c>
       <c r="U17" t="s">
         <v>28</v>
@@ -2111,7 +2108,7 @@
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B18" t="s">
@@ -2141,8 +2138,8 @@
       <c r="J18">
         <v>0</v>
       </c>
-      <c r="K18">
-        <v>0</v>
+      <c r="K18" t="s">
+        <v>28</v>
       </c>
       <c r="L18" t="s">
         <v>28</v>
@@ -2151,7 +2148,7 @@
         <v>28</v>
       </c>
       <c r="N18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O18" t="s">
         <v>29</v>
@@ -2166,13 +2163,13 @@
         <v>28</v>
       </c>
       <c r="S18" t="s">
-        <v>28</v>
-      </c>
-      <c r="T18">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="T18" t="s">
+        <v>29</v>
       </c>
       <c r="U18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V18" t="s">
         <v>28</v>
@@ -2203,7 +2200,7 @@
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B19" t="s">
@@ -2233,35 +2230,35 @@
       <c r="J19">
         <v>0</v>
       </c>
-      <c r="K19">
-        <v>0</v>
+      <c r="K19" t="s">
+        <v>28</v>
       </c>
       <c r="L19" t="s">
         <v>28</v>
       </c>
       <c r="M19" t="s">
-        <v>28</v>
-      </c>
-      <c r="N19" t="s">
-        <v>29</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="s">
-        <v>29</v>
+        <v>29</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19" t="s">
+        <v>28</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
       </c>
       <c r="Q19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R19" t="s">
         <v>28</v>
       </c>
       <c r="S19" t="s">
-        <v>28</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="T19" t="s">
+        <v>29</v>
       </c>
       <c r="U19" t="s">
         <v>28</v>
@@ -2295,7 +2292,7 @@
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B20" t="s">
@@ -2325,35 +2322,35 @@
       <c r="J20">
         <v>0</v>
       </c>
-      <c r="K20">
-        <v>0</v>
+      <c r="K20" t="s">
+        <v>28</v>
       </c>
       <c r="L20" t="s">
         <v>28</v>
       </c>
       <c r="M20" t="s">
-        <v>28</v>
-      </c>
-      <c r="N20" t="s">
-        <v>29</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="s">
-        <v>29</v>
+        <v>29</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20" t="s">
+        <v>28</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
       </c>
       <c r="Q20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R20" t="s">
         <v>28</v>
       </c>
       <c r="S20" t="s">
-        <v>28</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="T20" t="s">
+        <v>29</v>
       </c>
       <c r="U20" t="s">
         <v>28</v>
@@ -2387,7 +2384,7 @@
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B21" t="s">
@@ -2417,14 +2414,14 @@
       <c r="J21">
         <v>0</v>
       </c>
-      <c r="K21">
-        <v>0</v>
+      <c r="K21" t="s">
+        <v>28</v>
       </c>
       <c r="L21" t="s">
         <v>28</v>
       </c>
       <c r="M21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N21" t="s">
         <v>29</v>
@@ -2432,20 +2429,20 @@
       <c r="O21" t="s">
         <v>29</v>
       </c>
-      <c r="P21" t="s">
-        <v>29</v>
+      <c r="P21">
+        <v>0</v>
       </c>
       <c r="Q21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R21" t="s">
         <v>28</v>
       </c>
       <c r="S21" t="s">
-        <v>28</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="T21" t="s">
+        <v>29</v>
       </c>
       <c r="U21" t="s">
         <v>28</v>
@@ -2479,7 +2476,7 @@
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B22" t="s">
@@ -2509,35 +2506,35 @@
       <c r="J22">
         <v>0</v>
       </c>
-      <c r="K22">
-        <v>0</v>
+      <c r="K22" t="s">
+        <v>28</v>
       </c>
       <c r="L22" t="s">
         <v>28</v>
       </c>
       <c r="M22" t="s">
-        <v>28</v>
-      </c>
-      <c r="N22" t="s">
-        <v>29</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="s">
-        <v>29</v>
+        <v>29</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
       </c>
       <c r="Q22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R22" t="s">
         <v>28</v>
       </c>
       <c r="S22" t="s">
-        <v>28</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="T22" t="s">
+        <v>29</v>
       </c>
       <c r="U22" t="s">
         <v>28</v>
@@ -2571,8 +2568,20 @@
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>70</v>
+      <c r="A23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" t="s">
+        <v>29</v>
       </c>
       <c r="F23" t="s">
         <v>28</v>
@@ -2589,35 +2598,35 @@
       <c r="J23">
         <v>0</v>
       </c>
-      <c r="K23">
-        <v>0</v>
+      <c r="K23" t="s">
+        <v>28</v>
       </c>
       <c r="L23" t="s">
         <v>28</v>
       </c>
       <c r="M23" t="s">
-        <v>28</v>
-      </c>
-      <c r="N23" t="s">
-        <v>29</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="s">
-        <v>29</v>
+        <v>29</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23" t="s">
+        <v>28</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
       </c>
       <c r="Q23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R23" t="s">
         <v>28</v>
       </c>
       <c r="S23" t="s">
-        <v>28</v>
-      </c>
-      <c r="T23">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="T23" t="s">
+        <v>29</v>
       </c>
       <c r="U23" t="s">
         <v>28</v>
@@ -2651,7 +2660,7 @@
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B24" t="s">
@@ -2681,38 +2690,38 @@
       <c r="J24">
         <v>0</v>
       </c>
-      <c r="K24">
-        <v>0</v>
+      <c r="K24" t="s">
+        <v>28</v>
       </c>
       <c r="L24" t="s">
         <v>28</v>
       </c>
       <c r="M24" t="s">
-        <v>28</v>
-      </c>
-      <c r="N24" t="s">
-        <v>29</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="s">
-        <v>29</v>
+        <v>29</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
       </c>
       <c r="Q24" t="s">
         <v>28</v>
       </c>
       <c r="R24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S24" t="s">
-        <v>28</v>
-      </c>
-      <c r="T24">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="T24" t="s">
+        <v>28</v>
       </c>
       <c r="U24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="V24" t="s">
         <v>28</v>
@@ -2743,7 +2752,7 @@
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B25" t="s">
@@ -2773,8 +2782,8 @@
       <c r="J25">
         <v>0</v>
       </c>
-      <c r="K25">
-        <v>0</v>
+      <c r="K25" t="s">
+        <v>28</v>
       </c>
       <c r="L25" t="s">
         <v>28</v>
@@ -2782,29 +2791,29 @@
       <c r="M25" t="s">
         <v>28</v>
       </c>
-      <c r="N25" t="s">
-        <v>28</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="s">
-        <v>29</v>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25" t="s">
+        <v>28</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
       </c>
       <c r="Q25" t="s">
         <v>28</v>
       </c>
       <c r="R25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S25" t="s">
-        <v>28</v>
-      </c>
-      <c r="T25">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="T25" t="s">
+        <v>28</v>
       </c>
       <c r="U25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="V25" t="s">
         <v>28</v>
@@ -2835,7 +2844,7 @@
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B26" t="s">
@@ -2865,20 +2874,20 @@
       <c r="J26">
         <v>0</v>
       </c>
-      <c r="K26">
-        <v>0</v>
+      <c r="K26" t="s">
+        <v>28</v>
       </c>
       <c r="L26" t="s">
         <v>28</v>
       </c>
       <c r="M26" t="s">
-        <v>28</v>
-      </c>
-      <c r="N26" t="s">
-        <v>29</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26" t="s">
+        <v>28</v>
       </c>
       <c r="P26">
         <v>0</v>
@@ -2889,11 +2898,11 @@
       <c r="R26" t="s">
         <v>28</v>
       </c>
-      <c r="S26" t="s">
-        <v>28</v>
-      </c>
-      <c r="T26">
-        <v>0</v>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26" t="s">
+        <v>28</v>
       </c>
       <c r="U26" t="s">
         <v>28</v>
@@ -2927,7 +2936,7 @@
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B27" t="s">
@@ -2957,8 +2966,8 @@
       <c r="J27">
         <v>0</v>
       </c>
-      <c r="K27">
-        <v>0</v>
+      <c r="K27" t="s">
+        <v>28</v>
       </c>
       <c r="L27" t="s">
         <v>28</v>
@@ -2966,11 +2975,11 @@
       <c r="M27" t="s">
         <v>28</v>
       </c>
-      <c r="N27" t="s">
-        <v>28</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27" t="s">
+        <v>28</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -2981,11 +2990,11 @@
       <c r="R27" t="s">
         <v>28</v>
       </c>
-      <c r="S27" t="s">
-        <v>28</v>
-      </c>
-      <c r="T27">
-        <v>0</v>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27" t="s">
+        <v>28</v>
       </c>
       <c r="U27" t="s">
         <v>28</v>
@@ -3019,7 +3028,7 @@
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="A28" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B28" t="s">
@@ -3049,8 +3058,8 @@
       <c r="J28">
         <v>0</v>
       </c>
-      <c r="K28">
-        <v>0</v>
+      <c r="K28" t="s">
+        <v>28</v>
       </c>
       <c r="L28" t="s">
         <v>28</v>
@@ -3058,11 +3067,11 @@
       <c r="M28" t="s">
         <v>28</v>
       </c>
-      <c r="N28" t="s">
-        <v>28</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28" t="s">
+        <v>28</v>
       </c>
       <c r="P28">
         <v>0</v>
@@ -3073,11 +3082,11 @@
       <c r="R28" t="s">
         <v>28</v>
       </c>
-      <c r="S28" t="s">
-        <v>28</v>
-      </c>
-      <c r="T28">
-        <v>0</v>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28" t="s">
+        <v>28</v>
       </c>
       <c r="U28" t="s">
         <v>28</v>
@@ -3111,7 +3120,7 @@
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B29" t="s">
@@ -3141,8 +3150,8 @@
       <c r="J29">
         <v>0</v>
       </c>
-      <c r="K29">
-        <v>0</v>
+      <c r="K29" t="s">
+        <v>28</v>
       </c>
       <c r="L29" t="s">
         <v>28</v>
@@ -3150,11 +3159,11 @@
       <c r="M29" t="s">
         <v>28</v>
       </c>
-      <c r="N29" t="s">
-        <v>28</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29" t="s">
+        <v>28</v>
       </c>
       <c r="P29">
         <v>0</v>
@@ -3165,11 +3174,11 @@
       <c r="R29" t="s">
         <v>28</v>
       </c>
-      <c r="S29" t="s">
-        <v>28</v>
-      </c>
-      <c r="T29">
-        <v>0</v>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29" t="s">
+        <v>28</v>
       </c>
       <c r="U29" t="s">
         <v>28</v>
@@ -3203,7 +3212,7 @@
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="A30" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B30" t="s">
@@ -3233,20 +3242,20 @@
       <c r="J30">
         <v>0</v>
       </c>
-      <c r="K30">
-        <v>0</v>
+      <c r="K30" t="s">
+        <v>28</v>
       </c>
       <c r="L30" t="s">
         <v>28</v>
       </c>
       <c r="M30" t="s">
-        <v>28</v>
-      </c>
-      <c r="N30" t="s">
-        <v>29</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30" t="s">
+        <v>28</v>
       </c>
       <c r="P30">
         <v>0</v>
@@ -3257,11 +3266,11 @@
       <c r="R30" t="s">
         <v>28</v>
       </c>
-      <c r="S30" t="s">
-        <v>28</v>
-      </c>
-      <c r="T30">
-        <v>0</v>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30" t="s">
+        <v>28</v>
       </c>
       <c r="U30" t="s">
         <v>28</v>
@@ -3295,7 +3304,7 @@
       </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="A31" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B31" t="s">
@@ -3326,19 +3335,19 @@
         <v>29</v>
       </c>
       <c r="K31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M31" t="s">
-        <v>29</v>
-      </c>
-      <c r="N31" t="s">
-        <v>28</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31" t="s">
+        <v>28</v>
       </c>
       <c r="P31">
         <v>0</v>
@@ -3349,11 +3358,11 @@
       <c r="R31" t="s">
         <v>28</v>
       </c>
-      <c r="S31" t="s">
-        <v>28</v>
-      </c>
-      <c r="T31">
-        <v>0</v>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31" t="s">
+        <v>28</v>
       </c>
       <c r="U31" t="s">
         <v>28</v>
@@ -3387,7 +3396,7 @@
       </c>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="A32" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B32" t="s">
@@ -3414,11 +3423,11 @@
       <c r="I32" t="s">
         <v>28</v>
       </c>
-      <c r="J32" t="s">
-        <v>29</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32" t="s">
+        <v>28</v>
       </c>
       <c r="L32" t="s">
         <v>28</v>
@@ -3427,7 +3436,7 @@
         <v>28</v>
       </c>
       <c r="N32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O32" t="s">
         <v>29</v>
@@ -3441,11 +3450,11 @@
       <c r="R32" t="s">
         <v>28</v>
       </c>
-      <c r="S32" t="s">
-        <v>28</v>
-      </c>
-      <c r="T32">
-        <v>0</v>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32" t="s">
+        <v>28</v>
       </c>
       <c r="U32" t="s">
         <v>28</v>
@@ -3479,7 +3488,7 @@
       </c>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="A33" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B33" t="s">
@@ -3506,17 +3515,17 @@
       <c r="I33" t="s">
         <v>28</v>
       </c>
-      <c r="J33" t="s">
-        <v>29</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33" t="s">
+        <v>28</v>
       </c>
       <c r="L33" t="s">
         <v>28</v>
       </c>
       <c r="M33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N33" t="s">
         <v>29</v>
@@ -3533,11 +3542,11 @@
       <c r="R33" t="s">
         <v>28</v>
       </c>
-      <c r="S33" t="s">
-        <v>28</v>
-      </c>
-      <c r="T33">
-        <v>0</v>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33" t="s">
+        <v>28</v>
       </c>
       <c r="U33" t="s">
         <v>28</v>
@@ -3571,7 +3580,7 @@
       </c>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="A34" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B34" t="s">
@@ -3605,16 +3614,16 @@
         <v>29</v>
       </c>
       <c r="L34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M34" t="s">
         <v>28</v>
       </c>
-      <c r="N34" t="s">
-        <v>28</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34" t="s">
+        <v>28</v>
       </c>
       <c r="P34">
         <v>0</v>
@@ -3625,11 +3634,11 @@
       <c r="R34" t="s">
         <v>28</v>
       </c>
-      <c r="S34" t="s">
-        <v>28</v>
-      </c>
-      <c r="T34">
-        <v>0</v>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34" t="s">
+        <v>28</v>
       </c>
       <c r="U34" t="s">
         <v>28</v>
@@ -3663,7 +3672,7 @@
       </c>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="A35" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B35" t="s">
@@ -3690,23 +3699,23 @@
       <c r="I35" t="s">
         <v>28</v>
       </c>
-      <c r="J35" s="2">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35" t="s">
+        <v>28</v>
       </c>
       <c r="L35" t="s">
         <v>28</v>
       </c>
       <c r="M35" t="s">
-        <v>28</v>
-      </c>
-      <c r="N35" t="s">
-        <v>29</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35" t="s">
+        <v>28</v>
       </c>
       <c r="P35">
         <v>0</v>
@@ -3717,11 +3726,11 @@
       <c r="R35" t="s">
         <v>28</v>
       </c>
-      <c r="S35" t="s">
-        <v>28</v>
-      </c>
-      <c r="T35">
-        <v>0</v>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35" t="s">
+        <v>28</v>
       </c>
       <c r="U35" t="s">
         <v>28</v>
@@ -3755,7 +3764,7 @@
       </c>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="A36" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B36" t="s">
@@ -3782,23 +3791,23 @@
       <c r="I36" t="s">
         <v>28</v>
       </c>
-      <c r="J36" s="2">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36" t="s">
+        <v>28</v>
       </c>
       <c r="L36" t="s">
         <v>28</v>
       </c>
       <c r="M36" t="s">
-        <v>28</v>
-      </c>
-      <c r="N36" t="s">
-        <v>29</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36" t="s">
+        <v>28</v>
       </c>
       <c r="P36">
         <v>0</v>
@@ -3809,11 +3818,11 @@
       <c r="R36" t="s">
         <v>28</v>
       </c>
-      <c r="S36" t="s">
-        <v>28</v>
-      </c>
-      <c r="T36">
-        <v>0</v>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36" t="s">
+        <v>28</v>
       </c>
       <c r="U36" t="s">
         <v>28</v>
@@ -3847,8 +3856,8 @@
       </c>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>73</v>
+      <c r="A37" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B37" t="s">
         <v>29</v>
@@ -3874,23 +3883,23 @@
       <c r="I37" t="s">
         <v>28</v>
       </c>
-      <c r="J37" s="2">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37" t="s">
+        <v>28</v>
       </c>
       <c r="L37" t="s">
         <v>28</v>
       </c>
       <c r="M37" t="s">
-        <v>28</v>
-      </c>
-      <c r="N37" t="s">
-        <v>29</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37" t="s">
+        <v>28</v>
       </c>
       <c r="P37">
         <v>0</v>
@@ -3901,11 +3910,11 @@
       <c r="R37" t="s">
         <v>28</v>
       </c>
-      <c r="S37" t="s">
-        <v>28</v>
-      </c>
-      <c r="T37">
-        <v>0</v>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37" t="s">
+        <v>28</v>
       </c>
       <c r="U37" t="s">
         <v>28</v>
@@ -3939,7 +3948,7 @@
       </c>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="A38" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B38" t="s">
@@ -3966,41 +3975,41 @@
       <c r="I38" t="s">
         <v>28</v>
       </c>
-      <c r="J38" s="2">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38" t="s">
+        <v>28</v>
       </c>
       <c r="L38" t="s">
         <v>28</v>
       </c>
       <c r="M38" t="s">
-        <v>28</v>
-      </c>
-      <c r="N38" t="s">
-        <v>29</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38" t="s">
+        <v>28</v>
+      </c>
+      <c r="P38" t="s">
+        <v>29</v>
       </c>
       <c r="Q38" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R38" t="s">
         <v>28</v>
       </c>
-      <c r="S38" t="s">
-        <v>28</v>
+      <c r="S38">
+        <v>0</v>
       </c>
       <c r="T38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V38" t="s">
         <v>28</v>
@@ -4031,7 +4040,7 @@
       </c>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="A39" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B39" t="s">
@@ -4058,41 +4067,41 @@
       <c r="I39" t="s">
         <v>28</v>
       </c>
-      <c r="J39" s="2">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39" t="s">
+        <v>28</v>
       </c>
       <c r="L39" t="s">
         <v>28</v>
       </c>
       <c r="M39" t="s">
-        <v>28</v>
-      </c>
-      <c r="N39" t="s">
-        <v>29</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39" t="s">
+        <v>28</v>
+      </c>
+      <c r="P39" t="s">
+        <v>29</v>
       </c>
       <c r="Q39" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R39" t="s">
         <v>28</v>
       </c>
-      <c r="S39" t="s">
-        <v>28</v>
+      <c r="S39">
+        <v>0</v>
       </c>
       <c r="T39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V39" t="s">
         <v>28</v>
@@ -4123,8 +4132,8 @@
       </c>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>72</v>
+      <c r="A40" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B40" t="s">
         <v>29</v>
@@ -4150,41 +4159,41 @@
       <c r="I40" t="s">
         <v>28</v>
       </c>
-      <c r="J40" s="2">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40" t="s">
+        <v>28</v>
       </c>
       <c r="L40" t="s">
         <v>28</v>
       </c>
       <c r="M40" t="s">
-        <v>28</v>
-      </c>
-      <c r="N40" t="s">
-        <v>29</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40" t="s">
+        <v>28</v>
+      </c>
+      <c r="P40" t="s">
+        <v>29</v>
       </c>
       <c r="Q40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R40" t="s">
         <v>28</v>
       </c>
-      <c r="S40" t="s">
-        <v>28</v>
+      <c r="S40">
+        <v>0</v>
       </c>
       <c r="T40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V40" t="s">
         <v>28</v>
@@ -4215,8 +4224,8 @@
       </c>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>64</v>
+      <c r="A41" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B41" t="s">
         <v>29</v>
@@ -4242,23 +4251,23 @@
       <c r="I41" t="s">
         <v>28</v>
       </c>
-      <c r="J41" s="2">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41" t="s">
+        <v>28</v>
       </c>
       <c r="L41" t="s">
         <v>28</v>
       </c>
       <c r="M41" t="s">
-        <v>28</v>
-      </c>
-      <c r="N41" t="s">
-        <v>29</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41" t="s">
+        <v>28</v>
       </c>
       <c r="P41">
         <v>0</v>
@@ -4269,11 +4278,11 @@
       <c r="R41" t="s">
         <v>28</v>
       </c>
-      <c r="S41" t="s">
-        <v>28</v>
-      </c>
-      <c r="T41">
-        <v>0</v>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41" t="s">
+        <v>28</v>
       </c>
       <c r="U41" t="s">
         <v>28</v>
@@ -4307,8 +4316,8 @@
       </c>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>65</v>
+      <c r="A42" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B42" t="s">
         <v>29</v>
@@ -4334,23 +4343,23 @@
       <c r="I42" t="s">
         <v>28</v>
       </c>
-      <c r="J42" s="2">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42" t="s">
+        <v>28</v>
       </c>
       <c r="L42" t="s">
         <v>28</v>
       </c>
       <c r="M42" t="s">
-        <v>28</v>
-      </c>
-      <c r="N42" t="s">
-        <v>29</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42" t="s">
+        <v>28</v>
       </c>
       <c r="P42">
         <v>0</v>
@@ -4361,11 +4370,11 @@
       <c r="R42" t="s">
         <v>28</v>
       </c>
-      <c r="S42" t="s">
-        <v>28</v>
-      </c>
-      <c r="T42">
-        <v>0</v>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42" t="s">
+        <v>28</v>
       </c>
       <c r="U42" t="s">
         <v>28</v>
@@ -4399,8 +4408,8 @@
       </c>
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>71</v>
+      <c r="A43" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B43" t="s">
         <v>29</v>
@@ -4426,23 +4435,23 @@
       <c r="I43" t="s">
         <v>28</v>
       </c>
-      <c r="J43" s="2">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43" t="s">
+        <v>28</v>
       </c>
       <c r="L43" t="s">
         <v>28</v>
       </c>
       <c r="M43" t="s">
-        <v>28</v>
-      </c>
-      <c r="N43" t="s">
-        <v>29</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43" t="s">
+        <v>28</v>
       </c>
       <c r="P43">
         <v>0</v>
@@ -4453,11 +4462,11 @@
       <c r="R43" t="s">
         <v>28</v>
       </c>
-      <c r="S43" t="s">
-        <v>28</v>
-      </c>
-      <c r="T43">
-        <v>0</v>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43" t="s">
+        <v>28</v>
       </c>
       <c r="U43" t="s">
         <v>28</v>

--- a/L2_arb_ipa_S2K22.xlsx
+++ b/L2_arb_ipa_S2K22.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewdavis/Documents/IU Grad School/S2K22/L700_S2K22/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A3000DD-0B63-8E48-85F4-E0DFC29B7AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7FA1C2-E142-7840-8A4D-686295B5F083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{F835DBB9-38C5-7F4E-810B-B19652674900}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="77">
   <si>
     <t>L2_arb_ipa</t>
   </si>
@@ -258,6 +258,15 @@
   </si>
   <si>
     <t>aː</t>
+  </si>
+  <si>
+    <t>aʶː</t>
+  </si>
+  <si>
+    <t>uʶː</t>
+  </si>
+  <si>
+    <t>iʶː</t>
   </si>
 </sst>
 </file>
@@ -618,12 +627,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B5ED3A9-2D9C-2346-9BB3-A42B7AFFEF2C}">
-  <dimension ref="A1:AD43"/>
+  <dimension ref="A1:AD46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
+      <selection pane="bottomLeft" activeCell="AB35" sqref="AB35:AD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3674,7 +3683,7 @@
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="B35" t="s">
         <v>29</v>
@@ -3758,15 +3767,15 @@
         <v>29</v>
       </c>
       <c r="AC35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AD35" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B36" t="s">
         <v>29</v>
@@ -3787,7 +3796,7 @@
         <v>28</v>
       </c>
       <c r="H36" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I36" t="s">
         <v>28</v>
@@ -3850,15 +3859,15 @@
         <v>29</v>
       </c>
       <c r="AC36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AD36" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B37" t="s">
         <v>29</v>
@@ -3942,15 +3951,15 @@
         <v>29</v>
       </c>
       <c r="AC37" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AD37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B38" t="s">
         <v>29</v>
@@ -3971,7 +3980,7 @@
         <v>28</v>
       </c>
       <c r="H38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I38" t="s">
         <v>28</v>
@@ -3994,11 +4003,11 @@
       <c r="O38" t="s">
         <v>28</v>
       </c>
-      <c r="P38" t="s">
-        <v>29</v>
+      <c r="P38">
+        <v>0</v>
       </c>
       <c r="Q38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R38" t="s">
         <v>28</v>
@@ -4025,24 +4034,24 @@
         <v>28</v>
       </c>
       <c r="Z38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA38" t="s">
         <v>29</v>
       </c>
-      <c r="AB38">
-        <v>0</v>
+      <c r="AB38" t="s">
+        <v>29</v>
       </c>
       <c r="AC38" t="s">
         <v>28</v>
       </c>
       <c r="AD38" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="B39" t="s">
         <v>29</v>
@@ -4063,7 +4072,7 @@
         <v>28</v>
       </c>
       <c r="H39" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I39" t="s">
         <v>28</v>
@@ -4122,19 +4131,19 @@
       <c r="AA39" t="s">
         <v>29</v>
       </c>
-      <c r="AB39">
-        <v>0</v>
+      <c r="AB39" t="s">
+        <v>29</v>
       </c>
       <c r="AC39" t="s">
         <v>28</v>
       </c>
       <c r="AD39" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B40" t="s">
         <v>29</v>
@@ -4155,7 +4164,7 @@
         <v>28</v>
       </c>
       <c r="H40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I40" t="s">
         <v>28</v>
@@ -4214,19 +4223,19 @@
       <c r="AA40" t="s">
         <v>29</v>
       </c>
-      <c r="AB40" t="s">
-        <v>29</v>
+      <c r="AB40">
+        <v>0</v>
       </c>
       <c r="AC40" t="s">
         <v>28</v>
       </c>
       <c r="AD40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B41" t="s">
         <v>29</v>
@@ -4247,7 +4256,7 @@
         <v>28</v>
       </c>
       <c r="H41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I41" t="s">
         <v>28</v>
@@ -4270,11 +4279,11 @@
       <c r="O41" t="s">
         <v>28</v>
       </c>
-      <c r="P41">
-        <v>0</v>
+      <c r="P41" t="s">
+        <v>29</v>
       </c>
       <c r="Q41" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R41" t="s">
         <v>28</v>
@@ -4295,16 +4304,16 @@
         <v>29</v>
       </c>
       <c r="X41" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Y41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z41" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AA41" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AB41">
         <v>0</v>
@@ -4318,7 +4327,7 @@
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B42" t="s">
         <v>29</v>
@@ -4362,11 +4371,11 @@
       <c r="O42" t="s">
         <v>28</v>
       </c>
-      <c r="P42">
-        <v>0</v>
+      <c r="P42" t="s">
+        <v>29</v>
       </c>
       <c r="Q42" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R42" t="s">
         <v>28</v>
@@ -4387,116 +4396,392 @@
         <v>29</v>
       </c>
       <c r="X42" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Y42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z42" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AA42" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB42">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>29</v>
       </c>
       <c r="AC42" t="s">
         <v>28</v>
       </c>
       <c r="AD42" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43" t="s">
+        <v>28</v>
+      </c>
+      <c r="G43" t="s">
+        <v>28</v>
+      </c>
+      <c r="H43" t="s">
+        <v>29</v>
+      </c>
+      <c r="I43" t="s">
+        <v>28</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43" t="s">
+        <v>28</v>
+      </c>
+      <c r="L43" t="s">
+        <v>28</v>
+      </c>
+      <c r="M43" t="s">
+        <v>29</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43" t="s">
+        <v>28</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>28</v>
+      </c>
+      <c r="R43" t="s">
+        <v>28</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43" t="s">
+        <v>28</v>
+      </c>
+      <c r="U43" t="s">
+        <v>28</v>
+      </c>
+      <c r="V43" t="s">
+        <v>28</v>
+      </c>
+      <c r="W43" t="s">
+        <v>29</v>
+      </c>
+      <c r="X43" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B44" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" t="s">
+        <v>28</v>
+      </c>
+      <c r="G44" t="s">
+        <v>28</v>
+      </c>
+      <c r="H44" t="s">
+        <v>29</v>
+      </c>
+      <c r="I44" t="s">
+        <v>28</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44" t="s">
+        <v>28</v>
+      </c>
+      <c r="L44" t="s">
+        <v>28</v>
+      </c>
+      <c r="M44" t="s">
+        <v>29</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44" t="s">
+        <v>28</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>28</v>
+      </c>
+      <c r="R44" t="s">
+        <v>28</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44" t="s">
+        <v>28</v>
+      </c>
+      <c r="U44" t="s">
+        <v>28</v>
+      </c>
+      <c r="V44" t="s">
+        <v>28</v>
+      </c>
+      <c r="W44" t="s">
+        <v>29</v>
+      </c>
+      <c r="X44" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB44">
+        <v>0</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" t="s">
+        <v>29</v>
+      </c>
+      <c r="E45" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" t="s">
+        <v>28</v>
+      </c>
+      <c r="G45" t="s">
+        <v>28</v>
+      </c>
+      <c r="H45" t="s">
+        <v>28</v>
+      </c>
+      <c r="I45" t="s">
+        <v>28</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45" t="s">
+        <v>28</v>
+      </c>
+      <c r="L45" t="s">
+        <v>28</v>
+      </c>
+      <c r="M45" t="s">
+        <v>29</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45" t="s">
+        <v>28</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>28</v>
+      </c>
+      <c r="R45" t="s">
+        <v>28</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45" t="s">
+        <v>28</v>
+      </c>
+      <c r="U45" t="s">
+        <v>28</v>
+      </c>
+      <c r="V45" t="s">
+        <v>28</v>
+      </c>
+      <c r="W45" t="s">
+        <v>29</v>
+      </c>
+      <c r="X45" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB45">
+        <v>0</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B43" t="s">
-        <v>29</v>
-      </c>
-      <c r="C43" t="s">
-        <v>28</v>
-      </c>
-      <c r="D43" t="s">
-        <v>29</v>
-      </c>
-      <c r="E43" t="s">
-        <v>29</v>
-      </c>
-      <c r="F43" t="s">
-        <v>28</v>
-      </c>
-      <c r="G43" t="s">
-        <v>28</v>
-      </c>
-      <c r="H43" t="s">
-        <v>28</v>
-      </c>
-      <c r="I43" t="s">
-        <v>28</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43" t="s">
-        <v>28</v>
-      </c>
-      <c r="L43" t="s">
-        <v>28</v>
-      </c>
-      <c r="M43" t="s">
-        <v>29</v>
-      </c>
-      <c r="N43">
-        <v>0</v>
-      </c>
-      <c r="O43" t="s">
-        <v>28</v>
-      </c>
-      <c r="P43">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>28</v>
-      </c>
-      <c r="R43" t="s">
-        <v>28</v>
-      </c>
-      <c r="S43">
-        <v>0</v>
-      </c>
-      <c r="T43" t="s">
-        <v>28</v>
-      </c>
-      <c r="U43" t="s">
-        <v>28</v>
-      </c>
-      <c r="V43" t="s">
-        <v>28</v>
-      </c>
-      <c r="W43" t="s">
-        <v>29</v>
-      </c>
-      <c r="X43" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z43" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA43" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB43" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC43" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD43" t="s">
+      <c r="B46" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" t="s">
+        <v>29</v>
+      </c>
+      <c r="E46" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" t="s">
+        <v>28</v>
+      </c>
+      <c r="G46" t="s">
+        <v>28</v>
+      </c>
+      <c r="H46" t="s">
+        <v>28</v>
+      </c>
+      <c r="I46" t="s">
+        <v>28</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46" t="s">
+        <v>28</v>
+      </c>
+      <c r="L46" t="s">
+        <v>28</v>
+      </c>
+      <c r="M46" t="s">
+        <v>29</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46" t="s">
+        <v>28</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>28</v>
+      </c>
+      <c r="R46" t="s">
+        <v>28</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46" t="s">
+        <v>28</v>
+      </c>
+      <c r="U46" t="s">
+        <v>28</v>
+      </c>
+      <c r="V46" t="s">
+        <v>28</v>
+      </c>
+      <c r="W46" t="s">
+        <v>29</v>
+      </c>
+      <c r="X46" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD46" t="s">
         <v>29</v>
       </c>
     </row>
